--- a/Replication Package/documentation/rider-audits/pooled/codebooks/pooled_mapping.xlsx
+++ b/Replication Package/documentation/rider-audits/pooled/codebooks/pooled_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\pooled\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1884223C-68E7-4EB4-B060-3285096DB742}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917E0FEF-396E-4E77-BDC1-DE7109EE8DF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>name</t>
   </si>
@@ -177,36 +177,9 @@
     <t>12</t>
   </si>
   <si>
-    <t>6:00</t>
-  </si>
-  <si>
-    <t>6:30</t>
-  </si>
-  <si>
-    <t>7:00</t>
-  </si>
-  <si>
-    <t>7:30</t>
-  </si>
-  <si>
-    <t>8:00</t>
-  </si>
-  <si>
-    <t>8:30</t>
-  </si>
-  <si>
-    <t>5:00</t>
-  </si>
-  <si>
-    <t>5:30</t>
-  </si>
-  <si>
     <t>item_uid station</t>
   </si>
   <si>
-    <t>obs_uuid</t>
-  </si>
-  <si>
     <t>Time bin</t>
   </si>
   <si>
@@ -216,18 +189,6 @@
     <t>pct_standing_public</t>
   </si>
   <si>
-    <t>Percentage of public space passangers who are standing</t>
-  </si>
-  <si>
-    <t>Percentage of reserved space passangers who are standing</t>
-  </si>
-  <si>
-    <t>Share of public space passengers who are male (Platform observations)</t>
-  </si>
-  <si>
-    <t>Share of reserved space passengers who are male (Platform observations)</t>
-  </si>
-  <si>
     <t>Few men in reserved space</t>
   </si>
   <si>
@@ -253,6 +214,24 @@
   </si>
   <si>
     <t>Compliance study -- pre/post</t>
+  </si>
+  <si>
+    <t>Share of reserved space passengers who are male</t>
+  </si>
+  <si>
+    <t>Share of public space passengers who are male</t>
+  </si>
+  <si>
+    <t>time_station_bin</t>
+  </si>
+  <si>
+    <t>Bin ID</t>
+  </si>
+  <si>
+    <t>Percentage of public space passengers who are standing</t>
+  </si>
+  <si>
+    <t>Percentage of reserved space passengers who are standing</t>
   </si>
 </sst>
 </file>
@@ -285,8 +264,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -678,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -707,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -733,7 +713,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -762,7 +742,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -788,10 +768,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -817,10 +797,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -846,12 +826,18 @@
     </row>
     <row r="9" spans="1:9">
       <c r="E9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -864,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -946,8 +932,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>51</v>
+      <c r="C7" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -957,8 +943,8 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>52</v>
+      <c r="C8" s="1">
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -968,8 +954,8 @@
       <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
-        <v>53</v>
+      <c r="C9" s="1">
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -979,8 +965,8 @@
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>54</v>
+      <c r="C10" s="1">
+        <v>0.3125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -990,8 +976,8 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
-        <v>55</v>
+      <c r="C11" s="1">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1001,8 +987,8 @@
       <c r="B12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
+      <c r="C12" s="1">
+        <v>0.35416666666666669</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1012,8 +998,8 @@
       <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>57</v>
+      <c r="C13" s="1">
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1023,8 +1009,8 @@
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
-        <v>58</v>
+      <c r="C14" s="1">
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1034,8 +1020,8 @@
       <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
+      <c r="C15" s="1">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1045,8 +1031,8 @@
       <c r="B16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
-        <v>52</v>
+      <c r="C16" s="1">
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1056,8 +1042,8 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>53</v>
+      <c r="C17" s="1">
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1067,74 +1053,74 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
+      <c r="C18" s="1">
+        <v>0.8125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
